--- a/write.xlsx
+++ b/write.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="12675" windowWidth="28800"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="古东" sheetId="10" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="10" relationships:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3957,9 +3957,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3970,14 +3970,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3993,37 +4001,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4038,8 +4038,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4047,7 +4047,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4060,24 +4067,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4092,7 +4084,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4100,14 +4092,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4180,20 +4180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4203,6 +4200,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4222,17 +4239,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4252,28 +4269,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4282,16 +4282,31 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
@@ -4300,130 +4315,115 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="43">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="1" numFmtId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4781,8 +4781,8 @@
   <sheetPr/>
   <dimension ref="A1:AH249"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="S51" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="true" topLeftCell="S61" workbookViewId="0">
+      <selection activeCell="Z82" sqref="Z82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18766,4 +18766,1220 @@
   <pageSetup orientation="landscape" paperSize="9"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/古东.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref=""/>
+  <sheetViews/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3">
+      <c r="AH3" t="str">
+        <v>8月体检建档，祈福医院住院发现糖尿病，已停药半年，自备血糖计/刚好体检完，不参加补检</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="AH4" t="str">
+        <v>电话故障/无人接听/联系人韩树成/8月新建糖尿病专档，中心医院取药，无记录</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="AH5" t="str">
+        <v>无就诊/中医院/自备血糖计/12月公司安排体检，不参加</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="AH6" t="str">
+        <v>端改药后腹痛、腹泻/运动3个月，补检血糖8.9，12月25号村委14.0/自备血糖计</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="AH7" t="str">
+        <v>规范管理</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="AH8" t="str">
+        <v>沙医驻点/无就诊/电话错号</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="AH9" t="str">
+        <v>规范管理/19糖筛，右眼眼疾，失明，血糖8.5糖化6.1/右眼失明，左眼豹纹状，无糖病变/韩盛爵家属</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="AH10" t="str">
+        <v>沙湾医院开药/第二季度本站开药</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="AH11" t="str">
+        <v>19糖筛血糖6.1糖化5.2，眼做手术，足筛感觉异常/眼底检查无异常</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="AH12" t="str">
+        <v>居住沙湾/沙湾医院开药、自备血压、血糖计/19糖筛，血糖10.1，糖化11.5，异常/眼底检查无异常/光化性皮炎/高血压药自买</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AH13" t="str">
+        <v>中心医院就诊//只留一次/19糖筛，血糖5.9，糖化8.0，/左右眼豹纹状，无糖病变/有血糖计</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="AH14" t="str">
+        <v>自备血糖计/第二季建高血糖档案</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="AH15" t="str">
+        <v>8月新建</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="AH16" t="str">
+        <v>6月新建糖，7月建高血压/中心医院取药/有高血压</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="AH17" t="str">
+        <v>沙医驻点，自备血糖计/注射胰岛素（广州）/19糖筛血糖5.3糖化7，眼做手术，左右眼视网膜出血，中度病变/韩树成老婆</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="AH18" t="str">
+        <v>乡医、偏瘦/19糖筛，血糖6.9糖化6.0/左右眼玻璃膜疣，老年黄斑，无糖病变/右脚静脉曲张</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="AH19" t="str">
+        <v>枝姐家婆/通知19糖筛，没来/不服高血压药</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="AH20" t="str">
+        <v>19糖筛血糖6.5糖化6.8/眼底检查无异常/体重88KG/2020年6月放支架，引哚布芬0.2Gbid。</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AH21" t="str">
+        <v>听力下降，行动不便/注射胰岛素/通知19糖筛，没来/何贤医院/2020年9月住院，血糖11+，稍低会手脚不适</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="AH22" t="str">
+        <v>通知19糖筛，没来/中心医院取药 </v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="AH23" t="str">
+        <v>沙医开药/19糖筛，2017眼手术，血糖9.1，糖化11.4异常/2020-6因“陈村粉”住中心医院</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="AH24" t="str">
+        <v>星辉老板/自备血糖计/19糖筛，血糖4.7糖化5.4/右眼视力差/眼底结果无异常</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="AH25" t="str">
+        <v>RI注射/无就诊/拒听电话/只留一次/9月致电，自备血糖计，血糖20左右，刚好外出几天，不去村委，住芷兰湾</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="AH26" t="str">
+        <v>11月25号，有烟酒/饮食不限制，喜欢吃粥</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="AH27" t="str">
+        <v>中心医院开药，自备血压计/体重100KG/是否服降糖药/胃炎服泮托拉唑，痛风病史</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="AH28" t="str">
+        <v>钟丽欢阿叔/19糖筛血糖7.3糖化6.9/左眼视力差/左右眼豹纹状眼底，无病变/2020-10发热住院</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="AH29" t="str">
+        <v>通知19糖筛，没来</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="AH30" t="str">
+        <v>公路清洁工/驻村/19糖筛，血糖正常8.0糖化7.0/左右豹纹眼底，无糖尿病病变</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="AH31" t="str">
+        <v>沙医驻点/19糖筛血糖13.5，糖化11.5/眼底检查左右眼豹纹状，无糖尿病眼变/2020-10血糖18.9，需转诊，眼部外伤，约驻点</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="AH32" t="str">
+        <v>19糖筛，血糖8.8糖化8.0，眼底检查无异常/背小孩，不见号牌/2020-8婷备注带状疱疹</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="AH33" t="str">
+        <v>已停药/驻村/通知19糖筛，没来/电话2空号/8月恢复专栏/梁金，梁木</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="AH34" t="str">
+        <v>慢阻肺病史/1月肺感染住沙湾医院，5月份头晕中心医院住院/2020年6月3号体检无做体格检查，</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="AH35" t="str">
+        <v>自备血糖计/沙湾取药格华止/甲状腺药</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="AH36" t="str">
+        <v>沙医驻点，家属代开药，社区有药/通知19糖筛，没来/2018年中风，中心医院住院，左边肢体稍差</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="AH37" t="str">
+        <v>不喜欢吃猪肉/19糖筛血糖7.5糖化7.3/左右眼豹纹眼底，无糖病变/冠心病，中心医院开雅施达，自备血压计</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="AH38" t="str">
+        <v>有烟无酒/19糖筛，眼视力下降，血糖5.6，糖化7.6偏高/右眼无异常，左眼屈光间质混浊，无糖病变</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="AH39" t="str">
+        <v>每天运动，补</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="AH40" t="str">
+        <v>注意糖尿病足/19糖筛血糖21.2，糖化21.6建议转诊，足烫伤，无做足筛/去年膝骨折/10体检17，转诊</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="AH41" t="str">
+        <v>第二季家属代取药/19糖筛，血糖13.9糖化10.3/眼底左右感性渗出，中度视网膜病变/9月4日中心医院急诊，输液RI/居保转医保，需改慢证</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="AH42" t="str">
+        <v>沙医驻点/公司体检/慢病站就诊皮肤病</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="AH43" t="str">
+        <v>自备血压计，2020-8月新建糖尿病专档，2020-6何贤体检</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="AH44" t="str">
+        <v>CA/不服降糖药/10-26家属告知中心医院住院，</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="AH45" t="str"/>
+    </row>
+    <row r="46">
+      <c r="AH46" t="str">
+        <v>2020-3新建糖尿病档/自备血糖计，2020-11无开血糖药</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="AH47" t="str">
+        <v>19糖筛，血糖6.5糖化5.4/右眼无异常，左眼玻璃疣，豹纹眼底，无糖病变/2020年8月沙医糖化5.7/高血脂、高尿酸/痛风患者/7月沙湾查尿酸</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="AH48" t="str">
+        <v>19糖筛，血糖11.2，糖化10.8异常/眼底检查无异常/瑞易宁</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="AH49" t="str">
+        <v>6月新建/烟酒</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="AH50" t="str">
+        <v>清远户口/注射RI，补</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="AH51" t="str">
+        <v>通知19糖筛，没来/中心医院取药，停血糖药/鼻CA/2020-10骨折，中心医院住院</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="AH52" t="str">
+        <v>19糖筛，血糖11.7糖化10.1右眼较差/眼底检查无异常</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="AH53" t="str">
+        <v>左拇指缺失一指节/19糖筛，血糖正常4.7糖化5.0/右眼无照片，左眼玻璃膜疣，无糖病变/20年体检无量身高、体重/村委身高165，体重50，停药几个月</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="AH54" t="str">
+        <v>无就诊/沙湾开药/不想体检/有药</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="AH55" t="str">
+        <v>9月新建</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="AH56" t="str">
+        <v>8月新建，自行买药</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="AH57" t="str">
+        <v>8月新建/个人档案在古龙站</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="AH58" t="str">
+        <v>梁金、梁枝三姐妹</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="AH59" t="str">
+        <v>固话不能完成、手机无人接听/脑血管后遗症病史</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="AH60" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="AH61" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="AH62" t="str">
+        <v>本社区开药/12-4家属诉血压150以上，心脏不舒服，服用安宫牛黄丸后好转</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="AH63" t="str">
+        <v>已戒烟</v>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="AH65" t="str">
+        <v>今年多次住院抽血检查，补检无抽血，肾病史</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="AH66" t="str">
+        <v>韩兆泉家属</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="AH67" t="str">
+        <v>换心脏瓣膜半年，肾病史/有血压计/简平家属/10月胃部不适</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="AH68" t="str">
+        <v>痛风患者</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="AH69" t="str">
+        <v>已戒烟</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="AH70" t="str">
+        <v>为何第三季沙医开药（余运龙），询问原农保转医保，有慢病证</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="AH71" t="str">
+        <v>黄杰池家属</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="AH72" t="str">
+        <v>本社区开药，体检后发现肾功能较差，服药治疗中，体重减轻</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="AH73" t="str">
+        <v>2019年补体检/一直家属代开药？</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="AH74" t="str">
+        <v>偏瘦</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="AH75" t="str">
+        <v>每天运动，补</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="AH76" t="str">
+        <v>3月18号新建/有血压计，黄炎燕老公</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="AH77" t="str">
+        <v>烟40支/天，已戒酒，2020-7-4开始病历“2周复查血压”</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="AH78" t="str">
+        <v>烟酒/女儿诉“晕血”，不参加补检</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="AH79" t="str">
+        <v>本社区开药/饮酒，肥胖76KG</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="AH80" t="str">
+        <v>带小孩，没时间参加补检</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="AH81" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="AH82" t="str">
+        <v>2019年补体检 /高尿酸病史</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="AH83" t="str">
+        <v>老婆（梁月英）刚好住院，不能给电话，13516147211</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="AH84" t="str">
+        <v>2月新建</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="AH85" t="str">
+        <v>痛风病史 /服药3个月，已经正常</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="AH86" t="str">
+        <v>2019年补体检，皮肤较黑</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="AH87" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="AH88" t="str">
+        <v>40支烟/天</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="AH89" t="str">
+        <v>2019补检肝功能145，建议复查，2020沙湾复查有好转</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="AH90" t="str">
+        <v>未婚，关系紧张/电话拒听，肥胖</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="AH91" t="str">
+        <v>酒 </v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="AH92" t="str">
+        <v>偶尔饮酒</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="AH93" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="AH94" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="AH95" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="AH96" t="str">
+        <v>本社区取药，白内障手术</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="AH97" t="str">
+        <v>本社区取药，烟酒。韩志强书记爸爸</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="AH98" t="str">
+        <v>本社区开药/彭浩新家属</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AH99" t="str">
+        <v>诉本站药不齐，要去中心医药开药，已停降脂药/</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="AH100" t="str">
+        <v>白内障术后，肥胖</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="AH101" t="str">
+        <v>有血压计/第三季开始家属代开药，病历有陷井，配合好</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="AH102" t="str">
+        <v>2020年第一季度家属代开药/白内障</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="AH103" t="str">
+        <v>9月李伟锋新建，身份证查档案</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="AH104" t="str">
+        <v>村委工作人员</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="AH105" t="str">
+        <v>沙湾或大森林买药/2020第二季度来开药</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="AH106" t="str">
+        <v>哮喘病史/酒/2020-4/5共2次随访</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="AH107" t="str">
+        <v>肾结石病史</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="AH108" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="AH109" t="str">
+        <v>行动不便，不参加补检/本社区开药</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="AH110" t="str">
+        <v>诉“怕死”，不体检/酒，病历一直“家属代诉”</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="AH111" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="AH112" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="AH113" t="str">
+        <v>痛风石患者、烟酒/刚好出差，不能参加补检/11-26疗养院刚体检完</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="AH114" t="str">
+        <v>本社区开药，胃炎病史</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AH115" t="str">
+        <v>右眼视力摸糊/酒</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AH116" t="str">
+        <v>7月新建/刚好出广州，不能参加补体检</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="AH117" t="str">
+        <v>本社区开药，吸烟</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="AH118" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="AH119" t="str">
+        <v>村委工作人员/高脂血症病史（病历记录高尿酸血症）</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="AH120" t="str">
+        <v>2019年新建/本社区开药</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="AH121" t="str">
+        <v>居住紫坭/5月心脏病加重，何贤就诊，12-1电话否认，错号</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="AH122" t="str">
+        <v>有烟40支/天，无酒，卖菜</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="AH123" t="str">
+        <v>赶做工程，不参加补检/烟酒</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="AH124" t="str">
+        <v>公路保洁员</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="AH125" t="str">
+        <v>2019年新建，吸烟</v>
+      </c>
+    </row>
+    <row r="126"/>
+    <row r="127">
+      <c r="AH127" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="AH128" t="str">
+        <v>2010腰椎间盘突出手术/本社区取药，烟</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AH129" t="str">
+        <v>沙医驻点/无就诊/杨珠家属/补</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="AH130" t="str">
+        <v>6月体检新建</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="AH131" t="str">
+        <v>家属公费，痛风病史</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="AH132" t="str">
+        <v>本社区取药，9月后无拿药，不规律服药/2020-12近些时间气促，饮补酒</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="AH133" t="str">
+        <v>只留一次/桥南社区开药，9月门诊随访/约2020-12-9门诊</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="AH134" t="str">
+        <v>沙医开药，痛风病史/无就诊/固话不能完成、手机无人接听/第二季家属接听，对社区医疗无信心，不能满足群众需求</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="AH135" t="str">
+        <v>今年社区取药，无参加过体检 /韩东荣家属，第二季度开始何贤取药</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="AH136" t="str">
+        <v>儿媳电话，为何2020-3后何贤取药/有血压计</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="AH137" t="str">
+        <v>沙医驻点/2019-4月份何贤住院，心悸冠心病，查不到沙湾的用药记录</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="AH138" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="AH139" t="str">
+        <v>本社区开药，烟</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AH140" t="str">
+        <v>6月李伟锋新建</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="AH141" t="str">
+        <v>沙湾医院/2020-3，4月本社区开药，自备血压计</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="AH142" t="str">
+        <v>腰椎间盘突出病史，病历记录“一直近一周胃部不适”</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="AH143" t="str">
+        <v>行动不便（拐杖）</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AH144" t="str">
+        <v>怕抽血，不参加补检，烟30支/天</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AH145" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="AH146" t="str">
+        <v>慢阻肺患者，11-6贵州旅游</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="AH147" t="str">
+        <v>新建档/中心医院就诊/尼麦角林/补</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AH148" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AH149" t="str">
+        <v>6月体检新建</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AH150" t="str">
+        <v>行动不便，记忆减退/中心医院取药</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AH151" t="str">
+        <v>第二季度家属代开药，肾病史，疗养院1，3，5做透折</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AH152" t="str">
+        <v>痛风</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AH153" t="str">
+        <v>沙医驻点/无就诊/第一季度女儿代诉可能不服药了/本人诉服药/6月3号体检血压183/97，转诊</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="AH154" t="str">
+        <v>酒，偏瘦/冠心病史</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="AH155" t="str">
+        <v>儿子外管中心/本社区开药，腰椎间盘突出病史/9月心率不好，中心医院就诊</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="AH156" t="str">
+        <v>中医院开药、自备血压计/本社区就诊腰痛、咳嗽</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="AH157" t="str">
+        <v>沙湾医院开药，自备血压计/雅施达/左边脚稍差，放支架多年/强患者，腰痛病史，中医理疗</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="AH158" t="str">
+        <v>关节退变病史</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="AH159" t="str">
+        <v>行动不便，下肢神经痛</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AH160" t="str">
+        <v>社区员工</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="AH161" t="str">
+        <v>本社区开药,自备血压计</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="AH162" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="AH163" t="str">
+        <v>无就诊/第二季度女儿不配合，说年纪老了，不想带来社区测血压</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="AH164" t="str">
+        <v>中医院开药/2020-10中医院就诊皮肤病</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="AH165" t="str">
+        <v>2019-10月膝关节损伤/何贤医院代开药（查不到用药记录）、自备血压计</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="AH166" t="str">
+        <v>2019年补体检</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="AH167" t="str">
+        <v>烟酒/自备血压计，家属配合度高</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="AH168" t="str">
+        <v>何贤开药，就诊心脏专科、自备血压计，肥胖77KG</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="AH169" t="str">
+        <v>中心医院取药</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="AH170" t="str">
+        <v>刚好出市桥就诊尿道炎，不参加补检</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="AH171" t="str">
+        <v>本社区开药，饮酒</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="AH172" t="str">
+        <v>氯沙坦钾片</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="AH173" t="str">
+        <v>沙湾开药，关节痛病史，睡眠不好</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="AH174" t="str">
+        <v>何贤医院开药/自备血压计/6月3号体检血糖26.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="AH175" t="str">
+        <v>沙医驻点建档//电话停机</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="AH176" t="str">
+        <v>2019年补体检</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="AH177" t="str">
+        <v>本社区开药，每天运动2小时</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="AH178" t="str">
+        <v>沙医开药，社区有药/住沙湾/自备血压计</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="AH179" t="str">
+        <v>沙医就诊，社区有药/酒/2020-9沙湾急诊尿潴留，已做手术</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="AH180" t="str">
+        <v>居住沙湾，沙医驻点/有血压计但不会用</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="AH181" t="str">
+        <v>韩然家属</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="AH182" t="str">
+        <v>沙湾医院开药、社区有药/无血压计</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="AH183" t="str">
+        <v>新建档/不服药/不运动/有血压计/查不到取药记录，高尿酸病史</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="AH184" t="str">
+        <v>本社区开药/家属医生</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="AH185" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="AH186" t="str">
+        <v>2019新建，2020-6月开始家属代开药/自己体检</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="AH187" t="str">
+        <v>自备血压计/沙湾开药，药不齐（美幸）</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="AH188" t="str">
+        <v>沙医驻点，第二季开始社区取药/自备血压计</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="AH189" t="str">
+        <v>11月小娟新建，修改专档日期为体检时间</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="AH190" t="str">
+        <v>肺CA，声音嘶哑，10-15咽喉痛，抽血送检，每20天中心医院检查一次</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="AH191" t="str">
+        <v>古东村书记，痛风病史/烟酒</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="AH192" t="str">
+        <v>6月体检新建，补6月随访</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="AH193" t="str">
+        <v>沙湾医院代开药/坎地沙坦</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="AH194" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="AH195" t="str">
+        <v>沙医驻点，坎地沙坦</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="AH196" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="AH197" t="str">
+        <v>已退休收水费工人，长期服钙片，行动不便/吸烟/2020-8后无本社区取药记录</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="AH198" t="str">
+        <v>驻点/无就诊/有血压计</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="AH199" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="AH200" t="str">
+        <v>中心医院/2020-3月来社区开药，韩攀家属/儿子带去中心医院开药，效果较好</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="AH201" t="str">
+        <v>本社区开药/肥胖77KG</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="AH202" t="str">
+        <v>2019年桥南开药，2020年本社区开药</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="AH203" t="str">
+        <v>沙湾医院/坎地沙坦</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="AH204" t="str">
+        <v>沙医驻点/医保定点沙湾</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="AH205" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208">
+      <c r="AH208" t="str">
+        <v>行动不便，脑血管后遗症病史/，2019年补体检，韩灼海家属/2019年家床病人</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="AH209" t="str">
+        <v>2020-8后无本社区取药记录</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="AH210" t="str">
+        <v>沙医驻点/无就诊/冯树海家属</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="AH211" t="str">
+        <v>本社区开药，胃炎病史</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="AH212" t="str">
+        <v>行动不便/冯妹，2019补体检</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="AH213" t="str">
+        <v>8月李伟锋新新建，修改专档日期为体检时间</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="AH214" t="str">
+        <v>无就诊、桥南社区取药，住桥南/痛风患者</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="AH215" t="str">
+        <v>行动不便，2019年补体检，韩寿康，韩灼海家属/19年家床病人/痛风病史</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="AH216" t="str">
+        <v>无就诊/拒听电话否认本人及家属/去年中心医院就诊、小娟10月门诊，身份证15位数，有门诊记录</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="AH217" t="str">
+        <v>2020-11-14咳嗽2周以上，指引胸片检查，检查结果正常</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="AH218" t="str">
+        <v>住敬老院2个月，不参加补检</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="AH219" t="str">
+        <v>居住紫坭三善</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="AH220" t="str">
+        <v>烟酒、偏瘦</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="AH221" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="AH222" t="str">
+        <v>2018白内障手术</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="AH223" t="str">
+        <v>2019年补体检/痛风病史</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="AH224" t="str">
+        <v>痛风患者/左手拇指、食指缺失，有烟无酒，2019补体检</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="AH225" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="AH226" t="str">
+        <v>已戒烟</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="AH227" t="str">
+        <v>偏咸/7月开始家属代开药，需更改第4季度，自备血压计</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="AH228" t="str">
+        <v>2019年补检体检，烟酒</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="AH229" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="AH230" t="str">
+        <v>2019年补检/高脂血症病史</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="AH231" t="str">
+        <v>韩明江家属/脚无力</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="AH232" t="str">
+        <v>冠心病，支架</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="AH233" t="str">
+        <v>2020-1月份心率快101次/痛风病史</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="AH234" t="str">
+        <v>2020年5月心率过快102次、烟酒</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="AH235" t="str">
+        <v>驻点/无就诊/住沙湾，约2020-12-9号门诊</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="AH236" t="str">
+        <v>本社区开药</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="AH237" t="str">
+        <v>11月小娟新建</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="AH238" t="str">
+        <v>10月小娟新建</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="AH239" t="str">
+        <v>10月登记，查不到健康档案、注销，建议2021体检</v>
+      </c>
+    </row>
+    <row r="240"/>
+    <row r="241">
+      <c r="AH241" t="str">
+        <v>10月7日小娟新建，有门诊，无随访记录</v>
+      </c>
+    </row>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244">
+      <c r="AH244" t="str">
+        <v>10月李伟锋新建</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="AH245" t="str">
+        <v>10月5日小娟新建，有门诊，无随访记录</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="AH246" t="str">
+        <v>10月小娟新建</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="AH247" t="str">
+        <v>有血压计,沙湾医院家属代开药/2019-8月沙湾CT，尼麦角林/行动不便，驼背，韩培均家属</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="AH248" t="str">
+        <v>疗养药开药，本社区无就诊，10-23何贤就诊头晕</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="AH249" t="str">
+        <v>动车段上班，无时间来测血压/不服药/无血压计</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>